--- a/data/trans_dic/P14B23-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 0,95</t>
+          <t>0,0; 0,73</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,79</t>
+          <t>0,0; 1,9</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,58; 5,26</t>
+          <t>0,62; 5,95</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +706,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,29</t>
+          <t>1,16; 4,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,64; 7,75</t>
+          <t>1,8; 8,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,09; 0,82</t>
+          <t>0,09; 0,86</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,71; 2,63</t>
+          <t>0,7; 2,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>1,53; 5,22</t>
+          <t>1,54; 5,31</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,28; 1,57</t>
+          <t>0,27; 1,57</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,14</t>
+          <t>0,0; 0,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,27; 2,18</t>
+          <t>0,25; 2,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,48</t>
+          <t>1,6; 4,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,35; 2,22</t>
+          <t>0,49; 2,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>2,08; 6,34</t>
+          <t>1,99; 6,06</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,08; 2,66</t>
+          <t>1,09; 2,65</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,33; 1,39</t>
+          <t>0,32; 1,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,86</t>
+          <t>1,62; 3,95</t>
         </is>
       </c>
     </row>
@@ -905,47 +906,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,13; 5,42</t>
+          <t>2,23; 5,52</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,8; 2,92</t>
+          <t>0,85; 2,9</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,64</t>
+          <t>2,68; 6,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,86</t>
+          <t>4,86; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,44</t>
+          <t>2,7; 5,49</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,1; 6,16</t>
+          <t>3,2; 6,23</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,03; 6,5</t>
+          <t>4,04; 6,6</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,83</t>
+          <t>2,01; 3,78</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,38; 5,76</t>
+          <t>3,28; 5,64</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 4,16</t>
+          <t>1,46; 4,27</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,89; 4,51</t>
+          <t>1,89; 4,54</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,93</t>
+          <t>1,6; 5,89</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,72; 10,16</t>
+          <t>5,61; 9,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>5,82; 10,08</t>
+          <t>5,8; 10,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>6,4; 9,64</t>
+          <t>6,37; 9,8</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,88; 6,5</t>
+          <t>3,9; 6,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,26; 6,79</t>
+          <t>4,22; 6,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 7,26</t>
+          <t>3,3; 7,13</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,72; 6,66</t>
+          <t>2,64; 6,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>2,3; 5,96</t>
+          <t>2,23; 5,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,67</t>
+          <t>4,09; 7,74</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10,26; 16,56</t>
+          <t>10,32; 16,92</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>8,81; 14,37</t>
+          <t>8,85; 14,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>9,82; 13,75</t>
+          <t>9,71; 13,8</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 10,97</t>
+          <t>7,17; 11,11</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>5,91; 9,48</t>
+          <t>5,97; 9,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7,47; 10,2</t>
+          <t>7,36; 10,13</t>
         </is>
       </c>
     </row>
@@ -1235,47 +1236,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,75</t>
+          <t>1,94; 6,58</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,3; 2,68</t>
+          <t>0,28; 2,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>1,82; 4,76</t>
+          <t>1,82; 4,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>11,14; 18,7</t>
+          <t>11,45; 18,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,58; 15,09</t>
+          <t>8,3; 14,87</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,91</t>
+          <t>2,79; 10,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,49; 12,23</t>
+          <t>7,61; 12,3</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,94; 8,77</t>
+          <t>4,93; 8,66</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>2,59; 7,34</t>
+          <t>2,93; 7,36</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,73; 7,31</t>
+          <t>1,66; 7,74</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 6,45</t>
+          <t>2,2; 6,51</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,28; 7,45</t>
+          <t>3,18; 7,65</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11,87; 18,97</t>
+          <t>12,01; 19,85</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>8,36; 15,46</t>
+          <t>8,71; 15,92</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,95; 13,32</t>
+          <t>9,06; 13,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>8,35; 13,64</t>
+          <t>8,5; 13,58</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,41; 11,09</t>
+          <t>6,4; 11,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>7,18; 10,41</t>
+          <t>7,1; 10,36</t>
         </is>
       </c>
     </row>
@@ -1455,47 +1456,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2,02; 3,16</t>
+          <t>1,99; 3,15</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,53; 2,53</t>
+          <t>1,56; 2,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>2,71; 4,36</t>
+          <t>2,81; 4,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,19; 8,96</t>
+          <t>7,13; 9,01</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>5,87; 7,63</t>
+          <t>5,87; 7,57</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>6,07; 8,18</t>
+          <t>5,78; 8,09</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,79; 5,85</t>
+          <t>4,79; 5,83</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>3,92; 4,97</t>
+          <t>3,9; 4,91</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,72; 6,13</t>
+          <t>4,8; 6,09</t>
         </is>
       </c>
     </row>
@@ -1523,4 +1524,1455 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con enfermedades crónicas discapacitantes de salud mental (trastornos depresivos o ansiedad)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>818</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>2380</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>8754</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>9298</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>12361</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>2802</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11678</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>21115</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>0; 3314</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0; 7990</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2462; 23780</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 5981</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4597; 18603</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5632; 25464</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>815; 7583</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>5672; 20302</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10963; 37846</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>4814</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>1924</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3591</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>17109</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>6066</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20185</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21923</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>7990</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>23776</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>1886; 10772</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>0; 5815</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1050; 9631</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>9747; 27103</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>2743; 12843</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>10205; 31048</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>14124; 34336</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3721; 14999</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>15199; 36913</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>24542</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>11143</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>22949</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47302</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>25843</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>26887</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>71844</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>36987</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>49836</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>15212; 37611</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5718; 19428</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>14353; 34829</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34417; 62847</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>17844; 36304</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>18963; 36900</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>56190; 91737</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>26741; 50272</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>37019; 63582</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>15570</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>19518</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>32783</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>47225</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>50552</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>57045</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>62795</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>70069</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>89829</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>9000; 26242</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>12222; 29304</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>14240; 52302</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>34309; 60999</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>37673; 66108</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>45409; 69883</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>47826; 81052</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>54662; 88553</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>52849; 114149</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>18455</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18135</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>32243</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>59623</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>56497</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>64234</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>78079</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>74632</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>96477</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>11331; 28056</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>10652; 28385</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>22939; 43414</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>46124; 75592</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>43952; 72741</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>53186; 75632</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>62857; 97364</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>58200; 92207</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>81670; 112380</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65-74</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>11345</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>3874</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>11178</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>52799</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>43149</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>41347</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>64144</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>47023</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>52524</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5990; 20313</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>927; 8857</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6696; 17822</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>40546; 67159</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>31372; 56185</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>16994; 66828</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>50442; 81494</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>35138; 61662</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>28632; 71833</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>75 o más</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9614</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>9917</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>14303</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>58952</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>46511</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>46372</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>68566</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>56428</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>60676</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>4133; 19247</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>5643; 16725</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>8982; 21628</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>46340; 76576</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>34837; 63700</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>38585; 56528</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>53916; 86175</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>42065; 73224</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>50276; 73422</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>589</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>85158</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>66891</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>125802</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>284994</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>237917</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>268431</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>370152</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>304808</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>394233</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>68163; 107992</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>53009; 85211</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>97311; 153069</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>253008; 319642</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>208193; 268155</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>214393; 300328</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>333642; 406157</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>270864; 340407</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>344408; 437020</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>